--- a/typecheck/benchmark/nonincremental_16_BU1/Abs{x,Tree{Add,[x..x]}}.BottomUpSolveEnd.Test-0.xlsx
+++ b/typecheck/benchmark/nonincremental_16_BU1/Abs{x,Tree{Add,[x..x]}}.BottomUpSolveEnd.Test-0.xlsx
@@ -79,7 +79,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,21 +131,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="18">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -547,14 +584,14 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">POWER(2,B3)-1</f>
+        <f t="shared" ref="C3:C7" si="0">POWER(2,B3)-1</f>
         <v>15</v>
       </c>
       <c r="D3">
         <v>0.118361111111111</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
+        <f t="shared" ref="E3:E7" si="1">C3/D3</f>
         <v>126.73081436282574</v>
       </c>
       <c r="F3" t="b">
@@ -707,6 +744,12 @@
       </c>
       <c r="J7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="E11" s="1">
+        <f>SUM(E2:E9)/COUNTA(E2:E9)</f>
+        <v>76.340984199317816</v>
       </c>
     </row>
   </sheetData>
